--- a/biology/Microbiologie/Cloche_de_Durham/Cloche_de_Durham.xlsx
+++ b/biology/Microbiologie/Cloche_de_Durham/Cloche_de_Durham.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En microbiologie, on appelle cloche ou tube de Durham un tube cylindrique de petloche it diamètre placé à l'envers (partie ouverte vers le bas) dans un tube contenant un milieu liquide ensemencé afin de déceler la formation éventuelle de gaz par les micro-organismes se développant dans le milieu liquide.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont tout simplement de petits tubes à essai translucides d'un faible diamètre insérés à l'envers dans un autre tube à essai de diamètre plus fort et plus long.
 </t>
@@ -542,11 +556,13 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cloches ou tubes de Durham sont utilisés en microbiologie pour détecter la production de gaz par des micro-organismes.
-Le grand tube est initialement rempli de la solution (milieu de culture) dans laquelle la présence de micro-organismes est suspectée ou recherchée et doit se développer. Certains micro-organismes produisent du gaz en se développant comme les coliformes[1]. Si du gaz est produit (après l'inoculation et l'incubation), une bulle de gaz visible sera piégée à l'intérieur du petit tube.
-Les cloches de Durham sont aussi utilisées pour mettre en évidence des fermentations, par exemple glucidiques dans un eau peptonée[2].
+Le grand tube est initialement rempli de la solution (milieu de culture) dans laquelle la présence de micro-organismes est suspectée ou recherchée et doit se développer. Certains micro-organismes produisent du gaz en se développant comme les coliformes. Si du gaz est produit (après l'inoculation et l'incubation), une bulle de gaz visible sera piégée à l'intérieur du petit tube.
+Les cloches de Durham sont aussi utilisées pour mettre en évidence des fermentations, par exemple glucidiques dans un eau peptonée.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Précaution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La lame d'air initiale créée lors de l'insertion du tube à l'envers disparaît pendant la stérilisation, généralement effectuée à 121 °C pendant environ 15 minutes.
 </t>
@@ -606,9 +624,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La méthode a été décrite pour la première fois en 1898 par le microbiologiste britannique Herbert Durham[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La méthode a été décrite pour la première fois en 1898 par le microbiologiste britannique Herbert Durham.
 </t>
         </is>
       </c>
